--- a/Jmerise/Dictionnaire de donnees.xlsx
+++ b/Jmerise/Dictionnaire de donnees.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\VG\Jmerise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Formation DL\VILLAGEGREEN\Jmerise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
   <si>
     <t>sta_id</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>lig_pu</t>
+  </si>
+  <si>
+    <t>pro_aff</t>
+  </si>
+  <si>
+    <t>afficher le produit</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
 </sst>
 </file>
@@ -912,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,153 +1425,165 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>110</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>113</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D52" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
